--- a/SignalAnalysis/localization/Portuguese (pt-PT) translation.xlsx
+++ b/SignalAnalysis/localization/Portuguese (pt-PT) translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FEF48B-98A0-4226-896A-A903E939EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A49C81-B137-4C68-A41A-2E197BF83B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12645" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
     <sheet name="pt-PT" sheetId="2" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="383">
   <si>
     <t>Key</t>
   </si>
@@ -1195,6 +1184,15 @@
   </si>
   <si>
     <t>Plots' context menu</t>
+  </si>
+  <si>
+    <t>strChkWindowPosition</t>
+  </si>
+  <si>
+    <t>In "settings" form, tab "User interface"</t>
+  </si>
+  <si>
+    <t>Remember window position and size on startup</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1287,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F192" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B2:F192" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F169">
-    <sortCondition ref="C2:C169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F193" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B2:F193" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F170">
+    <sortCondition ref="C2:C170"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{FD59FEA3-3999-4B95-9A21-60DCA8674A29}" name="File" dataDxfId="4"/>
@@ -1602,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
-  <dimension ref="B2:P192"/>
+  <dimension ref="B2:P193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2043,7 +2041,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>21</v>
@@ -2110,78 +2108,78 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2190,13 +2188,13 @@
         <v>348</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2205,13 +2203,13 @@
         <v>348</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -2220,13 +2218,13 @@
         <v>348</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -2235,13 +2233,13 @@
         <v>348</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -2250,13 +2248,13 @@
         <v>348</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -2265,13 +2263,13 @@
         <v>348</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -2280,13 +2278,13 @@
         <v>348</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -2295,13 +2293,13 @@
         <v>348</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -2310,13 +2308,13 @@
         <v>348</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -2325,13 +2323,13 @@
         <v>348</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -2340,13 +2338,13 @@
         <v>348</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -2355,13 +2353,13 @@
         <v>348</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -2370,13 +2368,13 @@
         <v>348</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2385,13 +2383,13 @@
         <v>348</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -2400,13 +2398,13 @@
         <v>348</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -2415,13 +2413,13 @@
         <v>348</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -2430,13 +2428,13 @@
         <v>348</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -2445,13 +2443,13 @@
         <v>348</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -2460,13 +2458,13 @@
         <v>348</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -2474,14 +2472,14 @@
       <c r="B58" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>78</v>
+      <c r="C58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -2489,14 +2487,14 @@
       <c r="B59" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>80</v>
+      <c r="C59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -2505,13 +2503,13 @@
         <v>348</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -2520,13 +2518,13 @@
         <v>348</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>351</v>
+        <v>81</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -2535,13 +2533,13 @@
         <v>348</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -2550,13 +2548,13 @@
         <v>348</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -2565,13 +2563,13 @@
         <v>348</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -2580,13 +2578,13 @@
         <v>348</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -2595,13 +2593,13 @@
         <v>348</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -2610,13 +2608,13 @@
         <v>348</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>91</v>
+        <v>330</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2625,13 +2623,13 @@
         <v>348</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -2640,13 +2638,13 @@
         <v>348</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>306</v>
+      <c r="E69" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2655,13 +2653,13 @@
         <v>348</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>304</v>
+      <c r="E70" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -2670,13 +2668,13 @@
         <v>348</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -2685,13 +2683,13 @@
         <v>348</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -2700,13 +2698,13 @@
         <v>348</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2715,13 +2713,13 @@
         <v>348</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -2730,13 +2728,13 @@
         <v>348</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2745,13 +2743,13 @@
         <v>348</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -2760,13 +2758,13 @@
         <v>348</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -2775,45 +2773,45 @@
         <v>348</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>93</v>
+        <v>314</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -2822,13 +2820,13 @@
         <v>348</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -2837,13 +2835,13 @@
         <v>348</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -2852,45 +2850,45 @@
         <v>348</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -2899,13 +2897,13 @@
         <v>348</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -2914,43 +2912,43 @@
         <v>348</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="D88" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -2959,13 +2957,13 @@
         <v>348</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -2974,13 +2972,13 @@
         <v>348</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2989,13 +2987,13 @@
         <v>348</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -3004,13 +3002,13 @@
         <v>348</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -3019,13 +3017,13 @@
         <v>348</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -3034,73 +3032,73 @@
         <v>348</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -3109,148 +3107,148 @@
         <v>348</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="D101" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="D102" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="D104" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E104" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -3259,58 +3257,58 @@
         <v>348</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="D112" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F113" s="1"/>
     </row>
@@ -3319,13 +3317,13 @@
         <v>348</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="F114" s="1"/>
     </row>
@@ -3334,13 +3332,13 @@
         <v>348</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -3349,13 +3347,13 @@
         <v>348</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F116" s="1"/>
     </row>
@@ -3364,28 +3362,28 @@
         <v>348</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F118" s="1"/>
     </row>
@@ -3394,13 +3392,13 @@
         <v>348</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F119" s="1"/>
     </row>
@@ -3409,13 +3407,13 @@
         <v>348</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F120" s="1"/>
     </row>
@@ -3424,13 +3422,13 @@
         <v>348</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -3439,13 +3437,13 @@
         <v>348</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -3454,43 +3452,43 @@
         <v>348</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="D124" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -3499,13 +3497,13 @@
         <v>348</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -3514,13 +3512,13 @@
         <v>348</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -3529,13 +3527,13 @@
         <v>348</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -3544,13 +3542,13 @@
         <v>348</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>372</v>
+        <v>182</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="F129" s="1"/>
     </row>
@@ -3559,13 +3557,13 @@
         <v>348</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="F130" s="1"/>
     </row>
@@ -3574,13 +3572,13 @@
         <v>348</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -3589,13 +3587,13 @@
         <v>348</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -3604,13 +3602,13 @@
         <v>348</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -3619,13 +3617,13 @@
         <v>348</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -3634,13 +3632,13 @@
         <v>348</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F135" s="1"/>
     </row>
@@ -3649,13 +3647,13 @@
         <v>348</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F136" s="1"/>
     </row>
@@ -3664,13 +3662,13 @@
         <v>348</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F137" s="1"/>
     </row>
@@ -3679,28 +3677,28 @@
         <v>348</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E138" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -3709,13 +3707,13 @@
         <v>348</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -3724,28 +3722,28 @@
         <v>348</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F142" s="1"/>
     </row>
@@ -3754,13 +3752,13 @@
         <v>348</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="F143" s="1"/>
     </row>
@@ -3769,13 +3767,13 @@
         <v>348</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F144" s="1"/>
     </row>
@@ -3784,13 +3782,13 @@
         <v>348</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F145" s="1"/>
     </row>
@@ -3799,13 +3797,13 @@
         <v>348</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F146" s="1"/>
     </row>
@@ -3814,13 +3812,13 @@
         <v>348</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F147" s="1"/>
     </row>
@@ -3829,13 +3827,13 @@
         <v>348</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -3844,13 +3842,13 @@
         <v>348</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -3859,13 +3857,13 @@
         <v>348</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -3874,13 +3872,13 @@
         <v>348</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>183</v>
+        <v>215</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F151" s="1"/>
     </row>
@@ -3889,13 +3887,13 @@
         <v>348</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -3904,13 +3902,13 @@
         <v>348</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F153" s="1"/>
     </row>
@@ -3919,13 +3917,13 @@
         <v>348</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F154" s="1"/>
     </row>
@@ -3934,13 +3932,13 @@
         <v>348</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>375</v>
+        <v>221</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F155" s="1"/>
     </row>
@@ -3949,13 +3947,13 @@
         <v>348</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="F156" s="1"/>
     </row>
@@ -3964,13 +3962,13 @@
         <v>348</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>223</v>
+        <v>376</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="F157" s="1"/>
     </row>
@@ -3979,13 +3977,13 @@
         <v>348</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F158" s="1"/>
     </row>
@@ -3994,28 +3992,28 @@
         <v>348</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="F160" s="1"/>
     </row>
@@ -4024,13 +4022,13 @@
         <v>348</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F161" s="1"/>
     </row>
@@ -4039,73 +4037,73 @@
         <v>348</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E162" s="1" t="s">
+      <c r="D163" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E164" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E165" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F166" s="1"/>
     </row>
@@ -4114,43 +4112,43 @@
         <v>348</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="2:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F169" s="1"/>
     </row>
@@ -4159,94 +4157,94 @@
         <v>348</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E170" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="D173" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F172" s="1"/>
-      <c r="N172" t="s">
+      <c r="F173" s="1"/>
+      <c r="N173" t="s">
         <v>311</v>
       </c>
-      <c r="P172" t="s">
+      <c r="P173" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="173" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F175" s="1"/>
     </row>
@@ -4255,13 +4253,13 @@
         <v>348</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F176" s="1"/>
     </row>
@@ -4270,13 +4268,13 @@
         <v>348</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F177" s="1"/>
     </row>
@@ -4285,13 +4283,13 @@
         <v>348</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="F178" s="1"/>
     </row>
@@ -4300,13 +4298,13 @@
         <v>348</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F179" s="1"/>
     </row>
@@ -4315,13 +4313,13 @@
         <v>348</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -4330,13 +4328,13 @@
         <v>348</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F181" s="1"/>
     </row>
@@ -4345,13 +4343,13 @@
         <v>348</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F182" s="1"/>
     </row>
@@ -4360,13 +4358,13 @@
         <v>348</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F183" s="1"/>
     </row>
@@ -4375,13 +4373,13 @@
         <v>348</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -4390,13 +4388,13 @@
         <v>348</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="F185" s="1"/>
     </row>
@@ -4405,13 +4403,13 @@
         <v>348</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F186" s="1"/>
     </row>
@@ -4420,13 +4418,13 @@
         <v>348</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F187" s="1"/>
     </row>
@@ -4435,13 +4433,13 @@
         <v>348</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F188" s="1"/>
     </row>
@@ -4450,13 +4448,13 @@
         <v>348</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F189" s="1"/>
     </row>
@@ -4465,13 +4463,13 @@
         <v>348</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F190" s="1"/>
     </row>
@@ -4480,13 +4478,13 @@
         <v>348</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>330</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F191" s="1"/>
     </row>
@@ -4495,15 +4493,30 @@
         <v>348</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E192" s="1" t="s">
+      <c r="D193" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F192" s="1"/>
+      <c r="F193" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
